--- a/Asset Data/IGP/Asset_Data_IGP/Furnace Oil/furnace_oil_main.xlsx
+++ b/Asset Data/IGP/Asset_Data_IGP/Furnace Oil/furnace_oil_main.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Oil and Gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Furnace Oil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFEB4ED-8282-41F2-B93D-675EEE04C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF00F50F-4BAD-4FF9-AFA9-6D3F19D394C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{89E3E1D4-058F-4101-B26F-B643B033DF7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89E3E1D4-058F-4101-B26F-B643B033DF7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="intro" sheetId="2" r:id="rId1"/>
-    <sheet name="Furnace_oil" sheetId="1" r:id="rId2"/>
+    <sheet name="Furnace_oil" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -63,9 +63,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>Bashundhara Oil and Gas Company Refinery</t>
   </si>
   <si>
@@ -228,30 +225,6 @@
     <t>kt/yr</t>
   </si>
   <si>
-    <t>emfpm10(g_GJ)</t>
-  </si>
-  <si>
-    <t>pm10(t_day)</t>
-  </si>
-  <si>
-    <t>emfpm25(g_GJ)</t>
-  </si>
-  <si>
-    <t>pm25(t_day)</t>
-  </si>
-  <si>
-    <t>emfso2(g_GJ)</t>
-  </si>
-  <si>
-    <t>so2(t_day)</t>
-  </si>
-  <si>
-    <t>emfnox(g_GJ)</t>
-  </si>
-  <si>
-    <t>nox(t_day)</t>
-  </si>
-  <si>
     <t>net_energy(GJ)</t>
   </si>
   <si>
@@ -261,18 +234,6 @@
     <t>FOB-1</t>
   </si>
   <si>
-    <t>pm10(t_yr)</t>
-  </si>
-  <si>
-    <t>pm25(t_yr)</t>
-  </si>
-  <si>
-    <t>so2(t_yr)</t>
-  </si>
-  <si>
-    <t>nox(t_yr)</t>
-  </si>
-  <si>
     <t>FOI-1</t>
   </si>
   <si>
@@ -373,13 +334,100 @@
   </si>
   <si>
     <t>FOI-20</t>
+  </si>
+  <si>
+    <t>capacity_tonnes</t>
+  </si>
+  <si>
+    <t>emfpm10</t>
+  </si>
+  <si>
+    <t>emfpm25</t>
+  </si>
+  <si>
+    <t>pm25_t_yr</t>
+  </si>
+  <si>
+    <t>emfso2</t>
+  </si>
+  <si>
+    <t>so2_t_yr</t>
+  </si>
+  <si>
+    <t>emfnox</t>
+  </si>
+  <si>
+    <t>nox_t_yr</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>EF normalised (tonnes of pollutant/tonnes of production)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tonne/000 tonnes</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>PM10*</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jindamanee, K., Thepanondh, S., Keawboonchu, J., Pinthong, N., &amp; Meeyai, A. (2024). Manifesting the hidden pollutants: Quantifying emissions and environmental impact of petroleum refinery on PM2. 5. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Atmospheric Environment: X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> , , 24 , 100300.</t>
+    </r>
+  </si>
+  <si>
+    <t>pm10_t_yr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +569,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF32302C"/>
-      <name val="Segoe UI Variable Display"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +786,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -823,7 +909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -866,14 +952,28 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -907,6 +1007,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1246,200 +1347,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1778536-F969-4C08-ACA6-83E1836B8B86}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83573C3-E7B7-424C-AE0F-EE71706A1A1C}">
   <dimension ref="A1:BM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="C2" s="3">
+        <v>23.668396999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>90.442808999999997</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <f>((J2*300)*3.6)</f>
+        <v>2376000000</v>
+      </c>
+      <c r="M2" s="3">
+        <f>L2/0.86</f>
+        <v>2762790697.6744184</v>
+      </c>
+      <c r="N2" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O2" s="3">
+        <f>N2*M2</f>
+        <v>250.64037209302322</v>
+      </c>
+      <c r="P2" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>M2*P2</f>
+        <v>191.95869767441863</v>
+      </c>
+      <c r="R2" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S2" s="3">
+        <f>M2*R2</f>
+        <v>4923.2930232558138</v>
+      </c>
+      <c r="T2" s="3">
+        <f>142*0.001*0.0000036</f>
+        <v>5.1120000000000008E-7</v>
+      </c>
+      <c r="U2" s="3">
+        <f>M2*T2</f>
+        <v>1412.338604651163</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="R1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>23.668396999999999</v>
-      </c>
-      <c r="D2">
-        <v>90.442808999999997</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="0">((J2*24)*3.6)</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M36" si="1">L2/0.35</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>25.2</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O36" si="2">(M2*N2)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P36" si="3">O2*365</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R36" si="4">(Q2*M2)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S36" si="5">R2*365</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>495</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U36" si="6">(T2*M2)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ref="V2:V36" si="7">U2*365</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>142</v>
-      </c>
-      <c r="X2">
-        <f t="shared" ref="X2:X36" si="8">(W2*M2)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:Y36" si="9">X2*365</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>29.47308</v>
@@ -1448,79 +1520,66 @@
         <v>76.878309999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L36" si="0">((J3*300)*3.6)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>25.2</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="M2:M36" si="1">L3/0.35</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O36" si="2">N3*M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
       </c>
       <c r="Q3" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q3:Q36" si="3">M3*P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S36" si="4">M3*R3</f>
         <v>0</v>
       </c>
       <c r="T3">
         <v>495</v>
       </c>
       <c r="U3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>142</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" ref="U2:U36" si="5">(T3*M3)/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>29.923863000000001</v>
@@ -1529,21 +1588,21 @@
         <v>74.953333999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1551,57 +1610,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>25.2</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q4" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R4">
+      <c r="R4" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T4">
         <v>495</v>
       </c>
       <c r="U4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>142</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>27.37846</v>
@@ -1610,21 +1656,21 @@
         <v>77.686620000000005</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1632,57 +1678,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>25.2</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R5">
+      <c r="R5" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T5">
         <v>495</v>
       </c>
       <c r="U5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>142</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>25.427779999999998</v>
@@ -1691,21 +1724,21 @@
         <v>86.060010000000005</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1713,57 +1746,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>25.2</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R6">
+      <c r="R6" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T6">
         <v>495</v>
       </c>
       <c r="U6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>142</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>22.045809999999999</v>
@@ -1772,21 +1792,21 @@
         <v>88.104330000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1794,57 +1814,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>25.2</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R7">
+      <c r="R7" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T7">
         <v>495</v>
       </c>
       <c r="U7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>142</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>29.4530463</v>
@@ -1853,82 +1860,70 @@
         <v>76.872707500000004</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>800</v>
+        <f>800*1000</f>
+        <v>800000</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8">
-        <f>(J8*4184)/365</f>
-        <v>9170.4109589041091</v>
+        <v>62</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>864000000</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>26201.174168297457</v>
-      </c>
-      <c r="N8">
-        <v>25.2</v>
-      </c>
-      <c r="O8">
+        <v>2468571428.5714288</v>
+      </c>
+      <c r="N8" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
-        <v>0.66026958904109589</v>
-      </c>
-      <c r="P8">
+        <v>223.94880000000001</v>
+      </c>
+      <c r="P8" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>240.9984</v>
-      </c>
-      <c r="Q8">
-        <v>19.3</v>
-      </c>
-      <c r="R8">
+        <v>171.51634285714289</v>
+      </c>
+      <c r="R8" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="4"/>
-        <v>0.50568266144814089</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>184.57417142857142</v>
+        <v>4398.994285714286</v>
       </c>
       <c r="T8">
         <v>495</v>
       </c>
       <c r="U8">
-        <f t="shared" si="6"/>
-        <v>12.96958121330724</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="7"/>
-        <v>4733.8971428571431</v>
-      </c>
-      <c r="W8">
-        <v>142</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="8"/>
-        <v>3.7205667318982387</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="9"/>
-        <v>1358.0068571428571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1221942.8571428573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>29.4530463</v>
@@ -1937,82 +1932,70 @@
         <v>76.872707500000004</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2">
+        <f>160*1000</f>
+        <v>160000</v>
+      </c>
+      <c r="K9" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="2">
-        <v>160</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9">
-        <f>(J9*4184)/365</f>
-        <v>1834.0821917808219</v>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>172800000</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>5240.2348336594914</v>
-      </c>
-      <c r="N9">
-        <v>25.2</v>
-      </c>
-      <c r="O9">
+        <v>493714285.71428573</v>
+      </c>
+      <c r="N9" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="2"/>
-        <v>0.13205391780821918</v>
-      </c>
-      <c r="P9">
+        <v>44.789760000000001</v>
+      </c>
+      <c r="P9" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>48.199680000000001</v>
-      </c>
-      <c r="Q9">
-        <v>19.3</v>
-      </c>
-      <c r="R9">
+        <v>34.303268571428575</v>
+      </c>
+      <c r="R9" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="4"/>
-        <v>0.10113653228962818</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>36.914834285714285</v>
+        <v>879.79885714285717</v>
       </c>
       <c r="T9">
         <v>495</v>
       </c>
       <c r="U9">
-        <f t="shared" si="6"/>
-        <v>2.5939162426614484</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="7"/>
-        <v>946.77942857142864</v>
-      </c>
-      <c r="W9">
-        <v>142</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="8"/>
-        <v>0.74411334637964777</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="9"/>
-        <v>271.60137142857144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>244388.57142857145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>29.928273000000001</v>
@@ -2021,85 +2004,72 @@
         <v>74.948007000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2">
         <v>1200</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10">
-        <f>(J10*4184)/365</f>
-        <v>13755.616438356165</v>
+        <v>62</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>1296000</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>39301.761252446187</v>
-      </c>
-      <c r="N10">
-        <v>25.2</v>
-      </c>
-      <c r="O10">
+        <v>3702857.1428571432</v>
+      </c>
+      <c r="N10" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="2"/>
-        <v>0.99040438356164384</v>
-      </c>
-      <c r="P10">
+        <v>0.33592320000000003</v>
+      </c>
+      <c r="P10" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>361.49759999999998</v>
-      </c>
-      <c r="Q10">
-        <v>19.3</v>
-      </c>
-      <c r="R10">
+        <v>0.25727451428571435</v>
+      </c>
+      <c r="R10" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="4"/>
-        <v>0.75852399217221145</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="5"/>
-        <v>276.8612571428572</v>
+        <v>6.5984914285714291</v>
       </c>
       <c r="T10">
         <v>495</v>
       </c>
       <c r="U10">
-        <f t="shared" si="6"/>
-        <v>19.454371819960862</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="7"/>
-        <v>7100.8457142857142</v>
-      </c>
-      <c r="W10">
-        <v>142</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="8"/>
-        <v>5.5808500978473585</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="9"/>
-        <v>2037.0102857142858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1832.9142857142858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>26.643450999999999</v>
@@ -2108,85 +2078,72 @@
         <v>79.488859000000005</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2">
         <v>900</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11">
-        <f>(J11*4184)/365</f>
-        <v>10316.712328767124</v>
+        <v>62</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>972000</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>29476.320939334641</v>
-      </c>
-      <c r="N11">
-        <v>25.2</v>
-      </c>
-      <c r="O11">
+        <v>2777142.8571428573</v>
+      </c>
+      <c r="N11" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O11" s="3">
         <f t="shared" si="2"/>
-        <v>0.74280328767123294</v>
-      </c>
-      <c r="P11">
+        <v>0.25194240000000001</v>
+      </c>
+      <c r="P11" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>271.1232</v>
-      </c>
-      <c r="Q11">
-        <v>19.3</v>
-      </c>
-      <c r="R11">
+        <v>0.19295588571428576</v>
+      </c>
+      <c r="R11" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="4"/>
-        <v>0.5688929941291585</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="5"/>
-        <v>207.64594285714284</v>
+        <v>4.9488685714285721</v>
       </c>
       <c r="T11">
         <v>495</v>
       </c>
       <c r="U11">
-        <f t="shared" si="6"/>
-        <v>14.590778864970646</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="7"/>
-        <v>5325.6342857142863</v>
-      </c>
-      <c r="W11">
-        <v>142</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="8"/>
-        <v>4.1856375733855193</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="9"/>
-        <v>1527.7577142857147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1374.6857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>22.06664396</v>
@@ -2195,82 +2152,69 @@
         <v>88.10308191</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2">
         <v>700</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12">
-        <f>(J12*4184)/365</f>
-        <v>8024.1095890410961</v>
+        <v>62</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>756000</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>22926.027397260277</v>
-      </c>
-      <c r="N12">
-        <v>25.2</v>
-      </c>
-      <c r="O12">
+        <v>2160000</v>
+      </c>
+      <c r="N12" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O12" s="3">
         <f t="shared" si="2"/>
-        <v>0.57773589041095907</v>
-      </c>
-      <c r="P12">
+        <v>0.1959552</v>
+      </c>
+      <c r="P12" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q12" s="3">
         <f t="shared" si="3"/>
-        <v>210.87360000000007</v>
-      </c>
-      <c r="Q12">
-        <v>19.3</v>
-      </c>
-      <c r="R12">
+        <v>0.15007680000000001</v>
+      </c>
+      <c r="R12" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="4"/>
-        <v>0.44247232876712334</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="5"/>
-        <v>161.50240000000002</v>
+        <v>3.8491200000000001</v>
       </c>
       <c r="T12">
         <v>495</v>
       </c>
       <c r="U12">
-        <f t="shared" si="6"/>
-        <v>11.348383561643837</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="7"/>
-        <v>4142.1600000000008</v>
-      </c>
-      <c r="W12">
-        <v>142</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="8"/>
-        <v>3.2554958904109594</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="9"/>
-        <v>1188.2560000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1069.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>30.16778</v>
@@ -2279,79 +2223,66 @@
         <v>70.932136</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L36" si="10">((J13*24)*3.6)</f>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>25.2</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R13">
+      <c r="R13" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13">
         <v>495</v>
       </c>
       <c r="U13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>142</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>33.553570000000001</v>
@@ -2360,79 +2291,66 @@
         <v>73.072974000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="10"/>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>25.2</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R14">
+      <c r="R14" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T14">
         <v>495</v>
       </c>
       <c r="U14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>142</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>24.846041</v>
@@ -2441,79 +2359,66 @@
         <v>67.124187000000006</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="10"/>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>25.2</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R15">
+      <c r="R15" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T15">
         <v>495</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>142</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>31.263200000000001</v>
@@ -2522,82 +2427,69 @@
         <v>74.1874818</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <v>1244</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="10"/>
-        <v>107481.60000000001</v>
+        <v>60</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>1343520</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>307090.28571428574</v>
-      </c>
-      <c r="N16">
-        <v>25.2</v>
-      </c>
-      <c r="O16">
+        <v>3838628.5714285718</v>
+      </c>
+      <c r="N16" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="2"/>
-        <v>7.7386752000000003</v>
-      </c>
-      <c r="P16">
+        <v>0.34824038400000001</v>
+      </c>
+      <c r="P16" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>2824.6164480000002</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="R16">
+        <v>0.26670791314285719</v>
+      </c>
+      <c r="R16" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="4"/>
-        <v>5.9268425142857151</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="5"/>
-        <v>2163.2975177142862</v>
+        <v>6.8404361142857155</v>
       </c>
       <c r="T16">
         <v>495</v>
       </c>
       <c r="U16">
-        <f t="shared" si="6"/>
-        <v>152.00969142857144</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="7"/>
-        <v>55483.537371428574</v>
-      </c>
-      <c r="W16">
-        <v>142</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="8"/>
-        <v>43.606820571428578</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="9"/>
-        <v>15916.489508571431</v>
+        <f t="shared" si="5"/>
+        <v>1900.1211428571432</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>30.569074000000001</v>
@@ -2606,82 +2498,69 @@
         <v>72.143899000000005</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <v>450</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="10"/>
-        <v>38880</v>
+        <v>60</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>486000</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>111085.71428571429</v>
-      </c>
-      <c r="N17">
-        <v>3.2</v>
-      </c>
-      <c r="O17">
+        <v>1388571.4285714286</v>
+      </c>
+      <c r="N17" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="2"/>
-        <v>0.35547428571428574</v>
-      </c>
-      <c r="P17">
+        <v>0.12597120000000001</v>
+      </c>
+      <c r="P17" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>129.74811428571431</v>
-      </c>
-      <c r="Q17">
-        <v>3.2</v>
-      </c>
-      <c r="R17">
+        <v>9.6477942857142882E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="4"/>
-        <v>0.35547428571428574</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="5"/>
-        <v>129.74811428571431</v>
+        <v>2.474434285714286</v>
       </c>
       <c r="T17">
         <v>0.253</v>
       </c>
       <c r="U17">
-        <f t="shared" si="6"/>
-        <v>2.8104685714285715E-2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="7"/>
-        <v>10.258210285714286</v>
-      </c>
-      <c r="W17">
-        <v>76</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="8"/>
-        <v>8.4425142857142852</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="9"/>
-        <v>3081.5177142857142</v>
+        <f t="shared" si="5"/>
+        <v>0.35130857142857141</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>31.733073999999998</v>
@@ -2690,82 +2569,69 @@
         <v>73.873509900000002</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <v>134</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="10"/>
-        <v>11577.6</v>
+        <v>60</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>144720</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>33078.857142857145</v>
-      </c>
-      <c r="N18">
-        <v>25.2</v>
-      </c>
-      <c r="O18">
+        <v>413485.71428571432</v>
+      </c>
+      <c r="N18" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O18" s="3">
         <f t="shared" si="2"/>
-        <v>0.83358720000000008</v>
-      </c>
-      <c r="P18">
+        <v>3.7511424000000002E-2</v>
+      </c>
+      <c r="P18" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>304.25932800000004</v>
-      </c>
-      <c r="Q18">
-        <v>19.3</v>
-      </c>
-      <c r="R18">
+        <v>2.8728987428571436E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="4"/>
-        <v>0.63842194285714293</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="5"/>
-        <v>233.02400914285718</v>
+        <v>0.73683154285714292</v>
       </c>
       <c r="T18">
         <v>495</v>
       </c>
       <c r="U18">
-        <f t="shared" si="6"/>
-        <v>16.374034285714288</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="7"/>
-        <v>5976.5225142857153</v>
-      </c>
-      <c r="W18">
-        <v>142</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="8"/>
-        <v>4.6971977142857142</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="9"/>
-        <v>1714.4771657142858</v>
+        <f t="shared" si="5"/>
+        <v>204.6754285714286</v>
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>31.678384999999999</v>
@@ -2774,74 +2640,61 @@
         <v>74.085086500000003</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <v>225</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>19440</v>
+        <v>60</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>243000</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>55542.857142857145</v>
-      </c>
-      <c r="N19">
-        <v>25.2</v>
-      </c>
-      <c r="O19">
+        <v>694285.71428571432</v>
+      </c>
+      <c r="N19" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="2"/>
-        <v>1.39968</v>
-      </c>
-      <c r="P19">
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="P19" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>510.88319999999999</v>
-      </c>
-      <c r="Q19">
-        <v>19.3</v>
-      </c>
-      <c r="R19">
+        <v>4.8238971428571441E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="4"/>
-        <v>1.071977142857143</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="5"/>
-        <v>391.27165714285718</v>
+        <v>1.237217142857143</v>
       </c>
       <c r="T19">
         <v>495</v>
       </c>
       <c r="U19">
-        <f t="shared" si="6"/>
-        <v>27.493714285714287</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="7"/>
-        <v>10035.205714285714</v>
-      </c>
-      <c r="W19">
-        <v>142</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="8"/>
-        <v>7.8870857142857149</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="9"/>
-        <v>2878.7862857142859</v>
+        <f t="shared" si="5"/>
+        <v>343.67142857142858</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AO19" s="1"/>
@@ -2850,10 +2703,10 @@
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>30.696210000000001</v>
@@ -2862,83 +2715,70 @@
         <v>73.260595100000003</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="10"/>
-        <v>19440</v>
+        <v>60</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>243000</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>55542.857142857145</v>
-      </c>
-      <c r="N20">
-        <v>3.2</v>
-      </c>
-      <c r="O20">
+        <v>694285.71428571432</v>
+      </c>
+      <c r="N20" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O20" s="3">
         <f t="shared" si="2"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="P20">
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="P20" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>64.874057142857154</v>
-      </c>
-      <c r="Q20">
-        <v>3.2</v>
-      </c>
-      <c r="R20">
+        <v>4.8238971428571441E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="4"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="5"/>
-        <v>64.874057142857154</v>
+        <v>1.237217142857143</v>
       </c>
       <c r="T20">
         <v>0.253</v>
       </c>
       <c r="U20">
-        <f t="shared" si="6"/>
-        <v>1.4052342857142857E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="7"/>
-        <v>5.129105142857143</v>
-      </c>
-      <c r="W20">
-        <v>76</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="8"/>
-        <v>4.2212571428571426</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="9"/>
-        <v>1540.7588571428571</v>
+        <f t="shared" si="5"/>
+        <v>0.17565428571428571</v>
       </c>
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>31.187860000000001</v>
@@ -2947,74 +2787,61 @@
         <v>73.890052299999994</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>19440</v>
+        <v>60</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>243000</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>55542.857142857145</v>
-      </c>
-      <c r="N21">
-        <v>3.2</v>
-      </c>
-      <c r="O21">
+        <v>694285.71428571432</v>
+      </c>
+      <c r="N21" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O21" s="3">
         <f t="shared" si="2"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="P21">
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="P21" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q21" s="3">
         <f t="shared" si="3"/>
-        <v>64.874057142857154</v>
-      </c>
-      <c r="Q21">
-        <v>3.2</v>
-      </c>
-      <c r="R21">
+        <v>4.8238971428571441E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="4"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="5"/>
-        <v>64.874057142857154</v>
+        <v>1.237217142857143</v>
       </c>
       <c r="T21">
         <v>0.253</v>
       </c>
       <c r="U21">
-        <f t="shared" si="6"/>
-        <v>1.4052342857142857E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="7"/>
-        <v>5.129105142857143</v>
-      </c>
-      <c r="W21">
-        <v>76</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="8"/>
-        <v>4.2212571428571426</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="9"/>
-        <v>1540.7588571428571</v>
+        <f t="shared" si="5"/>
+        <v>0.17565428571428571</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AO21" s="1"/>
@@ -3023,10 +2850,10 @@
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>31.122247999999999</v>
@@ -3035,83 +2862,70 @@
         <v>73.905394099999995</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="10"/>
-        <v>16848</v>
+        <v>60</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>210600</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>48137.142857142862</v>
-      </c>
-      <c r="N22">
-        <v>25.2</v>
-      </c>
-      <c r="O22">
+        <v>601714.2857142858</v>
+      </c>
+      <c r="N22" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="2"/>
-        <v>1.2130559999999999</v>
-      </c>
-      <c r="P22">
+        <v>5.4587520000000007E-2</v>
+      </c>
+      <c r="P22" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q22" s="3">
         <f t="shared" si="3"/>
-        <v>442.76543999999996</v>
-      </c>
-      <c r="Q22">
-        <v>19.3</v>
-      </c>
-      <c r="R22">
+        <v>4.1807108571428581E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="4"/>
-        <v>0.92904685714285729</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="5"/>
-        <v>339.10210285714288</v>
+        <v>1.0722548571428574</v>
       </c>
       <c r="T22">
         <v>495</v>
       </c>
       <c r="U22">
-        <f t="shared" si="6"/>
-        <v>23.827885714285717</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="7"/>
-        <v>8697.1782857142862</v>
-      </c>
-      <c r="W22">
-        <v>142</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="8"/>
-        <v>6.8354742857142865</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="9"/>
-        <v>2494.9481142857144</v>
+        <f t="shared" si="5"/>
+        <v>297.84857142857146</v>
       </c>
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>31.123387000000001</v>
@@ -3120,83 +2934,70 @@
         <v>73.9053045</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="10"/>
-        <v>16848</v>
+        <v>60</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>210600</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>48137.142857142862</v>
-      </c>
-      <c r="N23">
-        <v>25.2</v>
-      </c>
-      <c r="O23">
+        <v>601714.2857142858</v>
+      </c>
+      <c r="N23" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O23" s="3">
         <f t="shared" si="2"/>
-        <v>1.2130559999999999</v>
-      </c>
-      <c r="P23">
+        <v>5.4587520000000007E-2</v>
+      </c>
+      <c r="P23" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q23" s="3">
         <f t="shared" si="3"/>
-        <v>442.76543999999996</v>
-      </c>
-      <c r="Q23">
-        <v>19.3</v>
-      </c>
-      <c r="R23">
+        <v>4.1807108571428581E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="4"/>
-        <v>0.92904685714285729</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="5"/>
-        <v>339.10210285714288</v>
+        <v>1.0722548571428574</v>
       </c>
       <c r="T23">
         <v>495</v>
       </c>
       <c r="U23">
-        <f t="shared" si="6"/>
-        <v>23.827885714285717</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="7"/>
-        <v>8697.1782857142862</v>
-      </c>
-      <c r="W23">
-        <v>142</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="8"/>
-        <v>6.8354742857142865</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="9"/>
-        <v>2494.9481142857144</v>
+        <f t="shared" si="5"/>
+        <v>297.84857142857146</v>
       </c>
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>31.760857999999999</v>
@@ -3205,83 +3006,70 @@
         <v>74.033399799999998</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="10"/>
-        <v>19440</v>
+        <v>60</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>243000</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>55542.857142857145</v>
-      </c>
-      <c r="N24">
-        <v>3.2</v>
-      </c>
-      <c r="O24">
+        <v>694285.71428571432</v>
+      </c>
+      <c r="N24" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="2"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="P24">
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="P24" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q24" s="3">
         <f t="shared" si="3"/>
-        <v>64.874057142857154</v>
-      </c>
-      <c r="Q24">
-        <v>3.2</v>
-      </c>
-      <c r="R24">
+        <v>4.8238971428571441E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="4"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="5"/>
-        <v>64.874057142857154</v>
+        <v>1.237217142857143</v>
       </c>
       <c r="T24">
         <v>0.253</v>
       </c>
       <c r="U24">
-        <f t="shared" si="6"/>
-        <v>1.4052342857142857E-2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="7"/>
-        <v>5.129105142857143</v>
-      </c>
-      <c r="W24">
-        <v>76</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="8"/>
-        <v>4.2212571428571426</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="9"/>
-        <v>1540.7588571428571</v>
+        <f t="shared" si="5"/>
+        <v>0.17565428571428571</v>
       </c>
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>31.633140999999998</v>
@@ -3290,83 +3078,70 @@
         <v>73.870310799999999</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="10"/>
-        <v>19440</v>
+        <v>60</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>243000</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>55542.857142857145</v>
-      </c>
-      <c r="N25">
-        <v>3.2</v>
-      </c>
-      <c r="O25">
+        <v>694285.71428571432</v>
+      </c>
+      <c r="N25" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="2"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="P25">
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="P25" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q25" s="3">
         <f t="shared" si="3"/>
-        <v>64.874057142857154</v>
-      </c>
-      <c r="Q25">
-        <v>3.2</v>
-      </c>
-      <c r="R25">
+        <v>4.8238971428571441E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="4"/>
-        <v>0.17773714285714287</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="5"/>
-        <v>64.874057142857154</v>
+        <v>1.237217142857143</v>
       </c>
       <c r="T25">
         <v>0.253</v>
       </c>
       <c r="U25">
-        <f t="shared" si="6"/>
-        <v>1.4052342857142857E-2</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="7"/>
-        <v>5.129105142857143</v>
-      </c>
-      <c r="W25">
-        <v>76</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="8"/>
-        <v>4.2212571428571426</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="9"/>
-        <v>1540.7588571428571</v>
+        <f t="shared" si="5"/>
+        <v>0.17565428571428571</v>
       </c>
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>32.059081999999997</v>
@@ -3375,83 +3150,70 @@
         <v>74.781274800000006</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="10"/>
-        <v>18489.600000000002</v>
+        <v>60</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>231120</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>52827.42857142858</v>
-      </c>
-      <c r="N26">
-        <v>25.2</v>
-      </c>
-      <c r="O26">
+        <v>660342.85714285716</v>
+      </c>
+      <c r="N26" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O26" s="3">
         <f t="shared" si="2"/>
-        <v>1.3312512000000001</v>
-      </c>
-      <c r="P26">
+        <v>5.9906304E-2</v>
+      </c>
+      <c r="P26" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q26" s="3">
         <f t="shared" si="3"/>
-        <v>485.90668800000003</v>
-      </c>
-      <c r="Q26">
-        <v>19.3</v>
-      </c>
-      <c r="R26">
+        <v>4.5880621714285724E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="4"/>
-        <v>1.0195693714285716</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="5"/>
-        <v>372.14282057142862</v>
+        <v>1.1767309714285714</v>
       </c>
       <c r="T26">
         <v>495</v>
       </c>
       <c r="U26">
-        <f t="shared" si="6"/>
-        <v>26.149577142857147</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="7"/>
-        <v>9544.5956571428596</v>
-      </c>
-      <c r="W26">
-        <v>142</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="8"/>
-        <v>7.5014948571428581</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="9"/>
-        <v>2738.0456228571434</v>
+        <f t="shared" si="5"/>
+        <v>326.86971428571428</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>31.699591999999999</v>
@@ -3460,83 +3222,70 @@
         <v>73.210920999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="10"/>
-        <v>17280</v>
+        <v>60</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>216000</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>49371.428571428572</v>
-      </c>
-      <c r="N27">
-        <v>25.2</v>
-      </c>
-      <c r="O27">
+        <v>617142.85714285716</v>
+      </c>
+      <c r="N27" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O27" s="3">
         <f t="shared" si="2"/>
-        <v>1.2441599999999999</v>
-      </c>
-      <c r="P27">
+        <v>5.5987200000000001E-2</v>
+      </c>
+      <c r="P27" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q27" s="3">
         <f t="shared" si="3"/>
-        <v>454.11839999999995</v>
-      </c>
-      <c r="Q27">
-        <v>19.3</v>
-      </c>
-      <c r="R27">
+        <v>4.2879085714285725E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="4"/>
-        <v>0.95286857142857151</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="5"/>
-        <v>347.7970285714286</v>
+        <v>1.0997485714285715</v>
       </c>
       <c r="T27">
         <v>495</v>
       </c>
       <c r="U27">
-        <f t="shared" si="6"/>
-        <v>24.438857142857142</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="7"/>
-        <v>8920.1828571428559</v>
-      </c>
-      <c r="W27">
-        <v>142</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="8"/>
-        <v>7.0107428571428576</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="9"/>
-        <v>2558.921142857143</v>
+        <f t="shared" si="5"/>
+        <v>305.48571428571427</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>31.246171</v>
@@ -3545,84 +3294,71 @@
         <v>74.177849199999997</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="10"/>
-        <v>8294.4</v>
+        <v>60</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>103680</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>23698.285714285714</v>
-      </c>
-      <c r="N28">
-        <v>25.2</v>
-      </c>
-      <c r="O28">
+        <v>296228.57142857142</v>
+      </c>
+      <c r="N28" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O28" s="3">
         <f t="shared" si="2"/>
-        <v>0.59719679999999997</v>
-      </c>
-      <c r="P28">
+        <v>2.6873855999999998E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q28" s="3">
         <f t="shared" si="3"/>
-        <v>217.976832</v>
-      </c>
-      <c r="Q28">
-        <v>19.3</v>
-      </c>
-      <c r="R28">
+        <v>2.0581961142857146E-2</v>
+      </c>
+      <c r="R28" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="4"/>
-        <v>0.45737691428571425</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="5"/>
-        <v>166.94257371428571</v>
+        <v>0.52787931428571433</v>
       </c>
       <c r="T28">
         <v>495</v>
       </c>
       <c r="U28">
-        <f t="shared" si="6"/>
-        <v>11.730651428571429</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="7"/>
-        <v>4281.687771428572</v>
-      </c>
-      <c r="W28">
-        <v>142</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="8"/>
-        <v>3.3651565714285714</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="9"/>
-        <v>1228.2821485714285</v>
+        <f t="shared" si="5"/>
+        <v>146.63314285714287</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>32.062449000000001</v>
@@ -3631,83 +3367,70 @@
         <v>74.238869600000001</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="10"/>
-        <v>7344</v>
+        <v>60</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>91800</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>20982.857142857145</v>
-      </c>
-      <c r="N29">
-        <v>25.2</v>
-      </c>
-      <c r="O29">
+        <v>262285.71428571432</v>
+      </c>
+      <c r="N29" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O29" s="3">
         <f t="shared" si="2"/>
-        <v>0.52876800000000002</v>
-      </c>
-      <c r="P29">
+        <v>2.3794560000000003E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q29" s="3">
         <f t="shared" si="3"/>
-        <v>193.00032000000002</v>
-      </c>
-      <c r="Q29">
-        <v>19.3</v>
-      </c>
-      <c r="R29">
+        <v>1.8223611428571432E-2</v>
+      </c>
+      <c r="R29" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="4"/>
-        <v>0.40496914285714292</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="5"/>
-        <v>147.81373714285718</v>
+        <v>0.46739314285714295</v>
       </c>
       <c r="T29">
         <v>495</v>
       </c>
       <c r="U29">
-        <f t="shared" si="6"/>
-        <v>10.386514285714288</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="7"/>
-        <v>3791.077714285715</v>
-      </c>
-      <c r="W29">
-        <v>142</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="8"/>
-        <v>2.9795657142857146</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="9"/>
-        <v>1087.5414857142857</v>
+        <f t="shared" si="5"/>
+        <v>129.83142857142857</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>31.605906999999998</v>
@@ -3716,83 +3439,70 @@
         <v>73.905887300000003</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <v>1180</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="10"/>
-        <v>101952</v>
+        <v>60</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>1274400</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>291291.42857142858</v>
-      </c>
-      <c r="N30">
-        <v>3.2</v>
-      </c>
-      <c r="O30">
+        <v>3641142.8571428573</v>
+      </c>
+      <c r="N30" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O30" s="3">
         <f t="shared" si="2"/>
-        <v>0.93213257142857153</v>
-      </c>
-      <c r="P30">
+        <v>0.33032447999999998</v>
+      </c>
+      <c r="P30" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q30" s="3">
         <f t="shared" si="3"/>
-        <v>340.22838857142858</v>
-      </c>
-      <c r="Q30">
-        <v>3.2</v>
-      </c>
-      <c r="R30">
+        <v>0.25298660571428577</v>
+      </c>
+      <c r="R30" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="4"/>
-        <v>0.93213257142857153</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="5"/>
-        <v>340.22838857142858</v>
+        <v>6.4885165714285717</v>
       </c>
       <c r="T30">
         <v>0.253</v>
       </c>
       <c r="U30">
-        <f t="shared" si="6"/>
-        <v>7.3696731428571444E-2</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="7"/>
-        <v>26.899306971428576</v>
-      </c>
-      <c r="W30">
-        <v>76</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
-        <v>22.13814857142857</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="9"/>
-        <v>8080.4242285714281</v>
+        <f t="shared" si="5"/>
+        <v>0.92120914285714295</v>
       </c>
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>31.03867</v>
@@ -3801,74 +3511,61 @@
         <v>73.924773000000002</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <v>1223</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="10"/>
-        <v>105667.2</v>
+        <v>60</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
+        <v>1320840</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>301906.28571428574</v>
-      </c>
-      <c r="N31">
-        <v>3.2</v>
-      </c>
-      <c r="O31">
+        <v>3773828.5714285718</v>
+      </c>
+      <c r="N31" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O31" s="3">
         <f t="shared" si="2"/>
-        <v>0.96610011428571441</v>
-      </c>
-      <c r="P31">
+        <v>0.34236172800000003</v>
+      </c>
+      <c r="P31" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q31" s="3">
         <f t="shared" si="3"/>
-        <v>352.62654171428574</v>
-      </c>
-      <c r="Q31">
-        <v>3.2</v>
-      </c>
-      <c r="R31">
+        <v>0.26220560914285723</v>
+      </c>
+      <c r="R31" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="4"/>
-        <v>0.96610011428571441</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="5"/>
-        <v>352.62654171428574</v>
+        <v>6.724962514285715</v>
       </c>
       <c r="T31">
         <v>0.253</v>
       </c>
       <c r="U31">
-        <f t="shared" si="6"/>
-        <v>7.6382290285714291E-2</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="7"/>
-        <v>27.879535954285718</v>
-      </c>
-      <c r="W31">
-        <v>76</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="8"/>
-        <v>22.944877714285717</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="9"/>
-        <v>8374.8803657142871</v>
+        <f t="shared" si="5"/>
+        <v>0.9547786285714287</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AO31" s="1"/>
@@ -3876,10 +3573,10 @@
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>31.126387000000001</v>
@@ -3888,83 +3585,70 @@
         <v>72.191330100000002</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <v>1230</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="10"/>
-        <v>106272</v>
+        <v>60</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>1328400</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>303634.28571428574</v>
-      </c>
-      <c r="N32">
-        <v>3.2</v>
-      </c>
-      <c r="O32">
+        <v>3795428.5714285718</v>
+      </c>
+      <c r="N32" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O32" s="3">
         <f t="shared" si="2"/>
-        <v>0.97162971428571443</v>
-      </c>
-      <c r="P32">
+        <v>0.34432128000000001</v>
+      </c>
+      <c r="P32" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q32" s="3">
         <f t="shared" si="3"/>
-        <v>354.64484571428579</v>
-      </c>
-      <c r="Q32">
-        <v>3.2</v>
-      </c>
-      <c r="R32">
+        <v>0.26370637714285722</v>
+      </c>
+      <c r="R32" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S32" s="3">
         <f t="shared" si="4"/>
-        <v>0.97162971428571443</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="5"/>
-        <v>354.64484571428579</v>
+        <v>6.7634537142857152</v>
       </c>
       <c r="T32">
         <v>0.253</v>
       </c>
       <c r="U32">
-        <f t="shared" si="6"/>
-        <v>7.6819474285714298E-2</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="7"/>
-        <v>28.039108114285717</v>
-      </c>
-      <c r="W32">
-        <v>76</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="8"/>
-        <v>23.076205714285717</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="9"/>
-        <v>8422.8150857142864</v>
+        <f t="shared" si="5"/>
+        <v>0.96024342857142864</v>
       </c>
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>31.611397</v>
@@ -3973,83 +3657,70 @@
         <v>72.760783200000006</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33">
         <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="10"/>
-        <v>5356.8</v>
+        <v>60</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
+        <v>66960</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>15305.142857142859</v>
-      </c>
-      <c r="N33">
-        <v>155</v>
-      </c>
-      <c r="O33">
+        <v>191314.28571428574</v>
+      </c>
+      <c r="N33" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O33" s="3">
         <f t="shared" si="2"/>
-        <v>2.3722971428571431</v>
-      </c>
-      <c r="P33">
+        <v>1.7356032E-2</v>
+      </c>
+      <c r="P33" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q33" s="3">
         <f t="shared" si="3"/>
-        <v>865.88845714285719</v>
-      </c>
-      <c r="Q33">
-        <v>133</v>
-      </c>
-      <c r="R33">
+        <v>1.3292516571428575E-2</v>
+      </c>
+      <c r="R33" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S33" s="3">
         <f t="shared" si="4"/>
-        <v>2.0355840000000001</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="5"/>
-        <v>742.98815999999999</v>
+        <v>0.34092205714285717</v>
       </c>
       <c r="T33">
         <v>10.8</v>
       </c>
       <c r="U33">
-        <f t="shared" si="6"/>
-        <v>0.1652955428571429</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="7"/>
-        <v>60.33287314285716</v>
-      </c>
-      <c r="W33">
-        <v>81</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="8"/>
-        <v>1.2397165714285716</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="9"/>
-        <v>452.49654857142866</v>
+        <f t="shared" si="5"/>
+        <v>2.0661942857142863</v>
       </c>
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>32.242589000000002</v>
@@ -4058,83 +3729,70 @@
         <v>74.269122699999997</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34">
         <v>425</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="10"/>
-        <v>36720</v>
+        <v>60</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
+        <v>459000</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>104914.28571428572</v>
-      </c>
-      <c r="N34">
-        <v>25.2</v>
-      </c>
-      <c r="O34">
+        <v>1311428.5714285716</v>
+      </c>
+      <c r="N34" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O34" s="3">
         <f t="shared" si="2"/>
-        <v>2.64384</v>
-      </c>
-      <c r="P34">
+        <v>0.1189728</v>
+      </c>
+      <c r="P34" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q34" s="3">
         <f t="shared" si="3"/>
-        <v>965.00159999999994</v>
-      </c>
-      <c r="Q34">
-        <v>19.3</v>
-      </c>
-      <c r="R34">
+        <v>9.1118057142857173E-2</v>
+      </c>
+      <c r="R34" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="4"/>
-        <v>2.0248457142857146</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="5"/>
-        <v>739.06868571428583</v>
+        <v>2.3369657142857148</v>
       </c>
       <c r="T34">
         <v>495</v>
       </c>
       <c r="U34">
-        <f t="shared" si="6"/>
-        <v>51.932571428571435</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="7"/>
-        <v>18955.388571428575</v>
-      </c>
-      <c r="W34">
-        <v>142</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="8"/>
-        <v>14.897828571428573</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="9"/>
-        <v>5437.7074285714289</v>
+        <f t="shared" si="5"/>
+        <v>649.15714285714296</v>
       </c>
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>31.325543</v>
@@ -4143,83 +3801,70 @@
         <v>74.262315599999994</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35">
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="10"/>
-        <v>11664</v>
+        <v>60</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="0"/>
+        <v>145800</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>33325.71428571429</v>
-      </c>
-      <c r="N35">
-        <v>25.2</v>
-      </c>
-      <c r="O35">
+        <v>416571.42857142858</v>
+      </c>
+      <c r="N35" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O35" s="3">
         <f t="shared" si="2"/>
-        <v>0.83980800000000011</v>
-      </c>
-      <c r="P35">
+        <v>3.7791359999999996E-2</v>
+      </c>
+      <c r="P35" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q35" s="3">
         <f t="shared" si="3"/>
-        <v>306.52992000000006</v>
-      </c>
-      <c r="Q35">
-        <v>19.3</v>
-      </c>
-      <c r="R35">
+        <v>2.8943382857142864E-2</v>
+      </c>
+      <c r="R35" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="4"/>
-        <v>0.64318628571428582</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="5"/>
-        <v>234.76299428571431</v>
+        <v>0.74233028571428572</v>
       </c>
       <c r="T35">
         <v>495</v>
       </c>
       <c r="U35">
-        <f t="shared" si="6"/>
-        <v>16.496228571428574</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="7"/>
-        <v>6021.1234285714299</v>
-      </c>
-      <c r="W35">
-        <v>142</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="8"/>
-        <v>4.7322514285714288</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="9"/>
-        <v>1727.2717714285716</v>
+        <f t="shared" si="5"/>
+        <v>206.20285714285714</v>
       </c>
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>31.291530999999999</v>
@@ -4228,74 +3873,61 @@
         <v>74.249531899999994</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <v>136</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="10"/>
-        <v>11750.4</v>
+        <v>60</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
+        <v>146880</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>33572.571428571428</v>
-      </c>
-      <c r="N36">
-        <v>25.2</v>
-      </c>
-      <c r="O36">
+        <v>419657.1428571429</v>
+      </c>
+      <c r="N36" s="3">
+        <f>Sheet1!$D$5</f>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="O36" s="3">
         <f t="shared" si="2"/>
-        <v>0.84602879999999991</v>
-      </c>
-      <c r="P36">
+        <v>3.8071296000000004E-2</v>
+      </c>
+      <c r="P36" s="6">
+        <f>Sheet1!$D$2</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="Q36" s="3">
         <f t="shared" si="3"/>
-        <v>308.80051199999997</v>
-      </c>
-      <c r="Q36">
-        <v>19.3</v>
-      </c>
-      <c r="R36">
+        <v>2.9157778285714295E-2</v>
+      </c>
+      <c r="R36" s="3">
+        <f>Sheet1!$D$3</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="4"/>
-        <v>0.6479506285714286</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="5"/>
-        <v>236.50197942857145</v>
+        <v>0.74782902857142863</v>
       </c>
       <c r="T36">
         <v>495</v>
       </c>
       <c r="U36">
-        <f t="shared" si="6"/>
-        <v>16.618422857142857</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="7"/>
-        <v>6065.7243428571428</v>
-      </c>
-      <c r="W36">
-        <v>142</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="8"/>
-        <v>4.7673051428571425</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="9"/>
-        <v>1740.0663771428569</v>
+        <f t="shared" si="5"/>
+        <v>207.73028571428574</v>
       </c>
       <c r="AG36" s="1"/>
       <c r="AO36" s="1"/>
@@ -4310,4 +3942,147 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DC59A-8FF8-43DB-B6C9-1CE304B4DB75}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="8">
+        <f>19.3*0.0000036</f>
+        <v>6.9480000000000006E-5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2/1000</f>
+        <v>6.9480000000000011E-8</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="8">
+        <f>495*0.0000036</f>
+        <v>1.7819999999999999E-3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D5" si="0">B3/1000</f>
+        <v>1.782E-6</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="8">
+        <f>142*0.0000036</f>
+        <v>5.1119999999999996E-4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1119999999999997E-7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="8">
+        <f>25.2*0.0000036</f>
+        <v>9.0719999999999999E-5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>9.0719999999999994E-8</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>